--- a/Resources/2020_BLS_States.xlsx
+++ b/Resources/2020_BLS_States.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8139ed7acd5c9629/Desktop/SMU/Group2_Capstone/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22F44E8-233D-4518-847E-EDD4012FF625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E22F44E8-233D-4518-847E-EDD4012FF625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D66CFC8F-5B94-48B0-9659-9DC5191294BC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2D41EEA-7D92-41C7-8A4C-0502B73392A1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
   <si>
     <t>Year</t>
   </si>
@@ -66,9 +66,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -222,10 +219,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -626,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA2E12-56D6-433B-90AB-1F26FA28E86E}">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5">
         <v>49476</v>
@@ -690,10 +687,10 @@
         <v>2020</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5">
         <v>745</v>
@@ -710,10 +707,10 @@
         <v>2020</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5">
         <v>106</v>
@@ -730,10 +727,10 @@
         <v>2020</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5">
         <v>1073</v>
@@ -750,10 +747,10 @@
         <v>2020</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5">
         <v>443</v>
@@ -770,10 +767,10 @@
         <v>2020</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5">
         <v>5401</v>
@@ -790,10 +787,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5">
         <v>834</v>
@@ -810,10 +807,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5">
         <v>536</v>
@@ -830,10 +827,10 @@
         <v>2020</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5">
         <v>168</v>
@@ -850,10 +847,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5">
         <v>156</v>
@@ -870,10 +867,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5">
         <v>3249</v>
@@ -890,10 +887,10 @@
         <v>2020</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5">
         <v>1716</v>
@@ -910,10 +907,10 @@
         <v>2020</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5">
         <v>196</v>
@@ -930,10 +927,10 @@
         <v>2020</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5">
         <v>239</v>
@@ -950,10 +947,10 @@
         <v>2020</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5">
         <v>1951</v>
@@ -970,10 +967,10 @@
         <v>2020</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D17" s="5">
         <v>1050</v>
@@ -990,10 +987,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5">
         <v>521</v>
@@ -1010,10 +1007,10 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5">
         <v>457</v>
@@ -1030,10 +1027,10 @@
         <v>2020</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5">
         <v>656</v>
@@ -1050,10 +1047,10 @@
         <v>2020</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5">
         <v>693</v>
@@ -1070,10 +1067,10 @@
         <v>2020</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5">
         <v>206</v>
@@ -1090,10 +1087,10 @@
         <v>2020</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5">
         <v>1104</v>
@@ -1110,10 +1107,10 @@
         <v>2020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D24" s="5">
         <v>1114</v>
@@ -1130,10 +1127,10 @@
         <v>2020</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D25" s="5">
         <v>1500</v>
@@ -1150,10 +1147,10 @@
         <v>2020</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5">
         <v>914</v>
@@ -1170,10 +1167,10 @@
         <v>2020</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5">
         <v>432</v>
@@ -1190,10 +1187,10 @@
         <v>2020</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5">
         <v>979</v>
@@ -1210,10 +1207,10 @@
         <v>2020</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5">
         <v>142</v>
@@ -1230,10 +1227,10 @@
         <v>2020</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5">
         <v>337</v>
@@ -1250,10 +1247,10 @@
         <v>2020</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5">
         <v>449</v>
@@ -1270,10 +1267,10 @@
         <v>2020</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5">
         <v>234</v>
@@ -1290,10 +1287,10 @@
         <v>2020</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D33" s="5">
         <v>1421</v>
@@ -1310,10 +1307,10 @@
         <v>2020</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D34" s="5">
         <v>275</v>
@@ -1330,10 +1327,10 @@
         <v>2020</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5">
         <v>2934</v>
@@ -1350,10 +1347,10 @@
         <v>2020</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D36" s="5">
         <v>1609</v>
@@ -1370,10 +1367,10 @@
         <v>2020</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D37" s="5">
         <v>127</v>
@@ -1390,10 +1387,10 @@
         <v>2020</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5">
         <v>1708</v>
@@ -1410,10 +1407,10 @@
         <v>2020</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D39" s="5">
         <v>538</v>
@@ -1430,10 +1427,10 @@
         <v>2020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D40" s="5">
         <v>564</v>
@@ -1450,10 +1447,10 @@
         <v>2020</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D41" s="5">
         <v>1922</v>
@@ -1470,10 +1467,10 @@
         <v>2020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D42" s="5">
         <v>163</v>
@@ -1490,10 +1487,10 @@
         <v>2020</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D43" s="5">
         <v>817</v>
@@ -1510,10 +1507,10 @@
         <v>2020</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D44" s="5">
         <v>145</v>
@@ -1530,10 +1527,10 @@
         <v>2020</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D45" s="5">
         <v>1035</v>
@@ -1550,10 +1547,10 @@
         <v>2020</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D46" s="5">
         <v>4274</v>
@@ -1570,10 +1567,10 @@
         <v>2020</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D47" s="5">
         <v>418</v>
@@ -1590,10 +1587,10 @@
         <v>2020</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5">
         <v>108</v>
@@ -1610,10 +1607,10 @@
         <v>2020</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D49" s="5">
         <v>1453</v>
@@ -1630,10 +1627,10 @@
         <v>2020</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D50" s="5">
         <v>1139</v>
@@ -1650,10 +1647,10 @@
         <v>2020</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D51" s="5">
         <v>258</v>
@@ -1670,10 +1667,10 @@
         <v>2020</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D52" s="5">
         <v>880</v>
@@ -1690,10 +1687,10 @@
         <v>2020</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D53" s="5">
         <v>84</v>
@@ -1730,7 +1727,7 @@
         <v>2020</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1750,7 +1747,7 @@
         <v>2020</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>59</v>
@@ -1770,7 +1767,7 @@
         <v>2020</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
@@ -1790,7 +1787,7 @@
         <v>2020</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>59</v>
@@ -1810,7 +1807,7 @@
         <v>2020</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -1830,7 +1827,7 @@
         <v>2020</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1850,7 +1847,7 @@
         <v>2020</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -1870,7 +1867,7 @@
         <v>2020</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>59</v>
@@ -1890,7 +1887,7 @@
         <v>2020</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>59</v>
@@ -1910,7 +1907,7 @@
         <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>59</v>
@@ -1930,7 +1927,7 @@
         <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>59</v>
@@ -1950,7 +1947,7 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -1970,7 +1967,7 @@
         <v>2020</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -1990,7 +1987,7 @@
         <v>2020</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>59</v>
@@ -2010,7 +2007,7 @@
         <v>2020</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>59</v>
@@ -2030,7 +2027,7 @@
         <v>2020</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>59</v>
@@ -2050,7 +2047,7 @@
         <v>2020</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>59</v>
@@ -2070,7 +2067,7 @@
         <v>2020</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>59</v>
@@ -2090,7 +2087,7 @@
         <v>2020</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>59</v>
@@ -2110,7 +2107,7 @@
         <v>2020</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>59</v>
@@ -2130,7 +2127,7 @@
         <v>2020</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>59</v>
@@ -2150,7 +2147,7 @@
         <v>2020</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>59</v>
@@ -2170,7 +2167,7 @@
         <v>2020</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>59</v>
@@ -2190,7 +2187,7 @@
         <v>2020</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>59</v>
@@ -2210,7 +2207,7 @@
         <v>2020</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>59</v>
@@ -2230,7 +2227,7 @@
         <v>2020</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>59</v>
@@ -2250,7 +2247,7 @@
         <v>2020</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>59</v>
@@ -2270,7 +2267,7 @@
         <v>2020</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>59</v>
@@ -2290,7 +2287,7 @@
         <v>2020</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>59</v>
@@ -2310,7 +2307,7 @@
         <v>2020</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>59</v>
@@ -2330,7 +2327,7 @@
         <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>59</v>
@@ -2350,7 +2347,7 @@
         <v>2020</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>59</v>
@@ -2370,7 +2367,7 @@
         <v>2020</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>59</v>
@@ -2390,7 +2387,7 @@
         <v>2020</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>59</v>
@@ -2410,7 +2407,7 @@
         <v>2020</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>59</v>
@@ -2430,7 +2427,7 @@
         <v>2020</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>59</v>
@@ -2450,7 +2447,7 @@
         <v>2020</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>59</v>
@@ -2470,7 +2467,7 @@
         <v>2020</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>59</v>
@@ -2490,7 +2487,7 @@
         <v>2020</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>59</v>
@@ -2510,7 +2507,7 @@
         <v>2020</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>59</v>
@@ -2530,7 +2527,7 @@
         <v>2020</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>59</v>
@@ -2550,7 +2547,7 @@
         <v>2020</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>59</v>
@@ -2570,7 +2567,7 @@
         <v>2020</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>59</v>
@@ -2590,7 +2587,7 @@
         <v>2020</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>59</v>
@@ -2610,7 +2607,7 @@
         <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>59</v>
@@ -2630,7 +2627,7 @@
         <v>2020</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>59</v>
@@ -2650,7 +2647,7 @@
         <v>2020</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>59</v>
@@ -2670,7 +2667,7 @@
         <v>2020</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>59</v>
@@ -2690,7 +2687,7 @@
         <v>2020</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>59</v>
@@ -2710,7 +2707,7 @@
         <v>2020</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>59</v>
@@ -2730,7 +2727,7 @@
         <v>2020</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>59</v>
@@ -2743,1046 +2740,6 @@
       </c>
       <c r="F105" s="8">
         <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>2020</v>
-      </c>
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="5">
-        <v>110387</v>
-      </c>
-      <c r="E106" s="6">
-        <v>984</v>
-      </c>
-      <c r="F106" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>2020</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" s="5">
-        <v>1628</v>
-      </c>
-      <c r="E107" s="6">
-        <v>887</v>
-      </c>
-      <c r="F107" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>2020</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D108" s="5">
-        <v>238</v>
-      </c>
-      <c r="E108" s="6">
-        <v>1021</v>
-      </c>
-      <c r="F108" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>2020</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D109" s="5">
-        <v>2384</v>
-      </c>
-      <c r="E109" s="6">
-        <v>932</v>
-      </c>
-      <c r="F109" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>2020</v>
-      </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="5">
-        <v>995</v>
-      </c>
-      <c r="E110" s="6">
-        <v>849</v>
-      </c>
-      <c r="F110" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>2020</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="5">
-        <v>12544</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1063</v>
-      </c>
-      <c r="F111" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>2020</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E112" s="6">
-        <v>1103</v>
-      </c>
-      <c r="F112" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>2020</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113" s="5">
-        <v>1221</v>
-      </c>
-      <c r="E113" s="6">
-        <v>1190</v>
-      </c>
-      <c r="F113" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>2020</v>
-      </c>
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D114" s="5">
-        <v>358</v>
-      </c>
-      <c r="E114" s="6">
-        <v>947</v>
-      </c>
-      <c r="F114" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>2020</v>
-      </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115" s="5">
-        <v>311</v>
-      </c>
-      <c r="E115" s="6">
-        <v>1628</v>
-      </c>
-      <c r="F115" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>2020</v>
-      </c>
-      <c r="B116" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="5">
-        <v>7025</v>
-      </c>
-      <c r="E116" s="6">
-        <v>904</v>
-      </c>
-      <c r="F116" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>2020</v>
-      </c>
-      <c r="B117" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" s="5">
-        <v>3584</v>
-      </c>
-      <c r="E117" s="6">
-        <v>891</v>
-      </c>
-      <c r="F117" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>2020</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118" s="5">
-        <v>419</v>
-      </c>
-      <c r="E118" s="6">
-        <v>980</v>
-      </c>
-      <c r="F118" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>2020</v>
-      </c>
-      <c r="B119" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="5">
-        <v>588</v>
-      </c>
-      <c r="E119" s="6">
-        <v>862</v>
-      </c>
-      <c r="F119" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>2020</v>
-      </c>
-      <c r="B120" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="5">
-        <v>4293</v>
-      </c>
-      <c r="E120" s="6">
-        <v>1030</v>
-      </c>
-      <c r="F120" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>2020</v>
-      </c>
-      <c r="B121" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" s="5">
-        <v>2378</v>
-      </c>
-      <c r="E121" s="6">
-        <v>903</v>
-      </c>
-      <c r="F121" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>2020</v>
-      </c>
-      <c r="B122" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122" s="5">
-        <v>1159</v>
-      </c>
-      <c r="E122" s="6">
-        <v>933</v>
-      </c>
-      <c r="F122" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>2020</v>
-      </c>
-      <c r="B123" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="5">
-        <v>1044</v>
-      </c>
-      <c r="E123" s="6">
-        <v>889</v>
-      </c>
-      <c r="F123" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>2020</v>
-      </c>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="5">
-        <v>1439</v>
-      </c>
-      <c r="E124" s="6">
-        <v>850</v>
-      </c>
-      <c r="F124" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>2020</v>
-      </c>
-      <c r="B125" t="s">
-        <v>26</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="5">
-        <v>1457</v>
-      </c>
-      <c r="E125" s="6">
-        <v>896</v>
-      </c>
-      <c r="F125" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>2020</v>
-      </c>
-      <c r="B126" t="s">
-        <v>27</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D126" s="5">
-        <v>451</v>
-      </c>
-      <c r="E126" s="6">
-        <v>918</v>
-      </c>
-      <c r="F126" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2020</v>
-      </c>
-      <c r="B127" t="s">
-        <v>28</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127" s="5">
-        <v>2279</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1149</v>
-      </c>
-      <c r="F127" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>2020</v>
-      </c>
-      <c r="B128" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D128" s="5">
-        <v>2429</v>
-      </c>
-      <c r="E128" s="6">
-        <v>1239</v>
-      </c>
-      <c r="F128" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>2020</v>
-      </c>
-      <c r="B129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="5">
-        <v>3277</v>
-      </c>
-      <c r="E129" s="6">
-        <v>995</v>
-      </c>
-      <c r="F129" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>2020</v>
-      </c>
-      <c r="B130" t="s">
-        <v>31</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="5">
-        <v>2040</v>
-      </c>
-      <c r="E130" s="6">
-        <v>1062</v>
-      </c>
-      <c r="F130" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>2020</v>
-      </c>
-      <c r="B131" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131" s="5">
-        <v>894</v>
-      </c>
-      <c r="E131" s="6">
-        <v>764</v>
-      </c>
-      <c r="F131" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>2020</v>
-      </c>
-      <c r="B132" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" s="5">
-        <v>2094</v>
-      </c>
-      <c r="E132" s="6">
-        <v>904</v>
-      </c>
-      <c r="F132" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>2020</v>
-      </c>
-      <c r="B133" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133" s="5">
-        <v>325</v>
-      </c>
-      <c r="E133" s="6">
-        <v>876</v>
-      </c>
-      <c r="F133" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>2020</v>
-      </c>
-      <c r="B134" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D134" s="5">
-        <v>742</v>
-      </c>
-      <c r="E134" s="6">
-        <v>931</v>
-      </c>
-      <c r="F134" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>2020</v>
-      </c>
-      <c r="B135" t="s">
-        <v>36</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="5">
-        <v>1035</v>
-      </c>
-      <c r="E135" s="6">
-        <v>886</v>
-      </c>
-      <c r="F135" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>2020</v>
-      </c>
-      <c r="B136" t="s">
-        <v>37</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="5">
-        <v>525</v>
-      </c>
-      <c r="E136" s="6">
-        <v>1051</v>
-      </c>
-      <c r="F136" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>2020</v>
-      </c>
-      <c r="B137" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="5">
-        <v>3178</v>
-      </c>
-      <c r="E137" s="6">
-        <v>1163</v>
-      </c>
-      <c r="F137" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>2020</v>
-      </c>
-      <c r="B138" t="s">
-        <v>39</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D138" s="5">
-        <v>618</v>
-      </c>
-      <c r="E138" s="6">
-        <v>858</v>
-      </c>
-      <c r="F138" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>2020</v>
-      </c>
-      <c r="B139" t="s">
-        <v>40</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" s="5">
-        <v>6312</v>
-      </c>
-      <c r="E139" s="6">
-        <v>1101</v>
-      </c>
-      <c r="F139" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>2020</v>
-      </c>
-      <c r="B140" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D140" s="5">
-        <v>3524</v>
-      </c>
-      <c r="E140" s="6">
-        <v>936</v>
-      </c>
-      <c r="F140" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>2020</v>
-      </c>
-      <c r="B141" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D141" s="5">
-        <v>281</v>
-      </c>
-      <c r="E141" s="6">
-        <v>963</v>
-      </c>
-      <c r="F141" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>2020</v>
-      </c>
-      <c r="B142" t="s">
-        <v>43</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D142" s="5">
-        <v>3852</v>
-      </c>
-      <c r="E142" s="6">
-        <v>967</v>
-      </c>
-      <c r="F142" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>2020</v>
-      </c>
-      <c r="B143" t="s">
-        <v>44</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D143" s="5">
-        <v>1265</v>
-      </c>
-      <c r="E143" s="6">
-        <v>844</v>
-      </c>
-      <c r="F143" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>2020</v>
-      </c>
-      <c r="B144" t="s">
-        <v>45</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D144" s="5">
-        <v>1352</v>
-      </c>
-      <c r="E144" s="6">
-        <v>1026</v>
-      </c>
-      <c r="F144" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>2020</v>
-      </c>
-      <c r="B145" t="s">
-        <v>46</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D145" s="5">
-        <v>4295</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1002</v>
-      </c>
-      <c r="F145" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>2020</v>
-      </c>
-      <c r="B146" t="s">
-        <v>47</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D146" s="5">
-        <v>375</v>
-      </c>
-      <c r="E146" s="6">
-        <v>1020</v>
-      </c>
-      <c r="F146" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>2020</v>
-      </c>
-      <c r="B147" t="s">
-        <v>48</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" s="5">
-        <v>1747</v>
-      </c>
-      <c r="E147" s="6">
-        <v>883</v>
-      </c>
-      <c r="F147" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>2020</v>
-      </c>
-      <c r="B148" t="s">
-        <v>49</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D148" s="5">
-        <v>315</v>
-      </c>
-      <c r="E148" s="6">
-        <v>877</v>
-      </c>
-      <c r="F148" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>2020</v>
-      </c>
-      <c r="B149" t="s">
-        <v>50</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D149" s="5">
-        <v>2284</v>
-      </c>
-      <c r="E149" s="6">
-        <v>861</v>
-      </c>
-      <c r="F149" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>2020</v>
-      </c>
-      <c r="B150" t="s">
-        <v>51</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D150" s="5">
-        <v>9882</v>
-      </c>
-      <c r="E150" s="6">
-        <v>939</v>
-      </c>
-      <c r="F150" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>2020</v>
-      </c>
-      <c r="B151" t="s">
-        <v>52</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151" s="5">
-        <v>1074</v>
-      </c>
-      <c r="E151" s="6">
-        <v>941</v>
-      </c>
-      <c r="F151" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>2020</v>
-      </c>
-      <c r="B152" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="5">
-        <v>217</v>
-      </c>
-      <c r="E152" s="6">
-        <v>960</v>
-      </c>
-      <c r="F152" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>2020</v>
-      </c>
-      <c r="B153" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D153" s="5">
-        <v>3181</v>
-      </c>
-      <c r="E153" s="6">
-        <v>1130</v>
-      </c>
-      <c r="F153" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>2020</v>
-      </c>
-      <c r="B154" t="s">
-        <v>55</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D154" s="5">
-        <v>2680</v>
-      </c>
-      <c r="E154" s="6">
-        <v>1109</v>
-      </c>
-      <c r="F154" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>2020</v>
-      </c>
-      <c r="B155" t="s">
-        <v>56</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="5">
-        <v>570</v>
-      </c>
-      <c r="E155" s="6">
-        <v>829</v>
-      </c>
-      <c r="F155" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>2020</v>
-      </c>
-      <c r="B156" t="s">
-        <v>57</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D156" s="5">
-        <v>2025</v>
-      </c>
-      <c r="E156" s="6">
-        <v>966</v>
-      </c>
-      <c r="F156" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>2020</v>
-      </c>
-      <c r="B157" t="s">
-        <v>58</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D157" s="5">
-        <v>195</v>
-      </c>
-      <c r="E157" s="6">
-        <v>940</v>
-      </c>
-      <c r="F157" s="8">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
